--- a/Mobile.de/Data/Config.xlsx
+++ b/Mobile.de/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IonutVarga\Documents\UiPath\Mobile.de-PDD\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndreiKrausz\Documents\GitHub\Mobile.de_VargaIonut\Mobile.de\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F036D1-7750-45D1-806C-0934BFAE37DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F714FE0-E073-47E9-8E85-EFD1D4475021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3900" yWindow="-14820" windowWidth="20220" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,15 +42,9 @@
     <t>make</t>
   </si>
   <si>
-    <t>Audi,BMW</t>
-  </si>
-  <si>
     <t>model</t>
   </si>
   <si>
-    <t>A6,X6</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -60,9 +54,6 @@
     <t>?lang=en</t>
   </si>
   <si>
-    <t>Estate Car,Saloon,Sports Car / Coupe</t>
-  </si>
-  <si>
     <t>fuelType</t>
   </si>
   <si>
@@ -115,6 +106,15 @@
   </si>
   <si>
     <t>https://www.mobile.de/</t>
+  </si>
+  <si>
+    <t>Estate Car,Saloon,Sports Car / Coupe,Cabriolet / Roadster,Small Car,SUV / Off-road Vehicle / Pickup Truck,Van / Minibus</t>
+  </si>
+  <si>
+    <t>Audi,Mercedes-Benz</t>
+  </si>
+  <si>
+    <t>A6,E-Class</t>
   </si>
 </sst>
 </file>
@@ -473,40 +473,40 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="89.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" customWidth="1"/>
+    <col min="2" max="2" width="89.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -514,116 +514,116 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
       <c r="B6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>3000</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
       </c>
       <c r="B13">
         <v>30000</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>100000</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>2010</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
